--- a/data/synopsis.xlsx
+++ b/data/synopsis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="9260" yWindow="0" windowWidth="16080" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>524_3d_snp1_img</t>
   </si>
@@ -48,9 +48,6 @@
     <t>556_3d_snp8_img</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>556_3d_snp7_img</t>
   </si>
   <si>
@@ -58,16 +55,65 @@
   </si>
   <si>
     <t>Lambda</t>
+  </si>
+  <si>
+    <t>&lt;r&gt;</t>
+  </si>
+  <si>
+    <t>2013-08-21a</t>
+  </si>
+  <si>
+    <t>2013-08-21b</t>
+  </si>
+  <si>
+    <t>(100 Pa)</t>
+  </si>
+  <si>
+    <t>1011_3d_snp16_img</t>
+  </si>
+  <si>
+    <t>1011_3d_snp17_img</t>
+  </si>
+  <si>
+    <t>Equilibrium</t>
+  </si>
+  <si>
+    <t>Equilibrium?</t>
+  </si>
+  <si>
+    <t>zmax</t>
+  </si>
+  <si>
+    <t>(25 Pa)</t>
+  </si>
+  <si>
+    <t>556_3d_snp1_img</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,13 +136,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,200 +496,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-40</v>
+      </c>
+      <c r="E2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>-40</v>
+      </c>
+      <c r="E3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>-40</v>
+      </c>
+      <c r="E4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>-40</v>
+      </c>
+      <c r="E6">
+        <v>0.311</v>
+      </c>
+      <c r="F6">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="I6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>-30</v>
+      </c>
+      <c r="E7">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G7">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>-28</v>
+      </c>
+      <c r="E8">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.64</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="D9">
+        <v>-27</v>
+      </c>
+      <c r="E9">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>-26</v>
+      </c>
+      <c r="E10">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>0.19</v>
+      </c>
+      <c r="L10">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
         <v>-40</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="E2">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1.7</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-40</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="E3">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F3">
-        <v>1.78</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>-40</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="E4">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.69</v>
-      </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-30</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>0.79</v>
-      </c>
-      <c r="E5">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F5">
-        <v>1.95</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>-28</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>0.76</v>
-      </c>
-      <c r="E6">
-        <v>0.253</v>
-      </c>
-      <c r="F6">
-        <v>2.16</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>-27</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="E7">
-        <v>0.248</v>
-      </c>
-      <c r="F7">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-26</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="E8">
-        <v>0.223</v>
-      </c>
-      <c r="F8">
-        <v>2.34</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
+      <c r="E14">
+        <v>0.129</v>
+      </c>
+      <c r="F14">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>-37</v>
+      </c>
+      <c r="E15">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.502</v>
+      </c>
+      <c r="G15">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I15">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L15">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
